--- a/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TelegramBot\ExcelReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2880FE5D-4690-4647-9D15-1ED035FF0485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99766DF-9359-4852-AA47-0AE4AA3267FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{66FF4D89-6652-4EF1-A4B0-989B96D2EEB7}"/>
+    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{C8128CC1-615E-48BD-9DEC-F9808F3FF5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{484BD522-FD57-4DDD-A7BD-66C5EAE61241}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{0EFC3DAE-211F-45A4-9F4C-280FBDB6FE7A}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Таблица Users на 27.03.2024 18:49:44</t>
+    <t>Таблица Users на 03.04.2024 22:50:06</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{670BE0B1-C510-4EDB-A0CB-7030E74F72D6}">
-  <header guid="{670BE0B1-C510-4EDB-A0CB-7030E74F72D6}" dateTime="2024-03-27T18:49:44" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CBBA9E10-465C-4482-A314-133FF5B261ED}">
+  <header guid="{CBBA9E10-465C-4482-A314-133FF5B261ED}" dateTime="2024-04-03T22:50:06" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A98E4E-D04D-4EA6-99CC-A74C3735E285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C197F8AF-9B64-49CC-8EC9-05DCDA1AD016}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -449,7 +449,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{484BD522-FD57-4DDD-A7BD-66C5EAE61241}">
+    <customSheetView guid="{0EFC3DAE-211F-45A4-9F4C-280FBDB6FE7A}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99766DF-9359-4852-AA47-0AE4AA3267FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{409FD718-7D7E-4BF2-B5C2-9DE288809D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{C8128CC1-615E-48BD-9DEC-F9808F3FF5FA}"/>
+    <workbookView xWindow="1320" yWindow="1294" windowWidth="18514" windowHeight="9583" xr2:uid="{CCB39990-31FB-4052-AB48-A019777B1EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{0EFC3DAE-211F-45A4-9F4C-280FBDB6FE7A}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{469EEA6C-AF2F-4AAB-B229-F4EB5CA74199}" mergeInterval="0" personalView="1" xWindow="154" yWindow="151" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Таблица Users на 03.04.2024 22:50:06</t>
+    <t>Таблица Users на 03.05.2024 16:01:51</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CBBA9E10-465C-4482-A314-133FF5B261ED}">
-  <header guid="{CBBA9E10-465C-4482-A314-133FF5B261ED}" dateTime="2024-04-03T22:50:06" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5CE57FBA-A542-4472-B332-03157B08944B}">
+  <header guid="{5CE57FBA-A542-4472-B332-03157B08944B}" dateTime="2024-05-03T16:01:51" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -410,14 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C197F8AF-9B64-49CC-8EC9-05DCDA1AD016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5BC0B1-B782-4B38-BF47-61AEBF974A53}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0EFC3DAE-211F-45A4-9F4C-280FBDB6FE7A}">
+    <customSheetView guid="{469EEA6C-AF2F-4AAB-B229-F4EB5CA74199}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/ActiveAdds.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409FD718-7D7E-4BF2-B5C2-9DE288809D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{804C5EE0-1B82-4C62-95AE-75986F4397EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1294" windowWidth="18514" windowHeight="9583" xr2:uid="{CCB39990-31FB-4052-AB48-A019777B1EF8}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="18514" windowHeight="9583" xr2:uid="{9A072BE3-A205-4D2C-A2D8-AB7D5F168658}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{469EEA6C-AF2F-4AAB-B229-F4EB5CA74199}" mergeInterval="0" personalView="1" xWindow="154" yWindow="151" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{9AD2534A-4371-478F-AE9D-9D6819E0B830}" mergeInterval="0" personalView="1" xWindow="308" yWindow="308" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +37,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Таблица Users на 03.05.2024 16:01:51</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Таблица PublisherToAdd на 18.06.2024 0:37:43</t>
+  </si>
+  <si>
+    <t>Заявка №</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Паблишер</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Прошло рекламных часов</t>
+  </si>
+  <si>
+    <t>Заработано</t>
+  </si>
+  <si>
+    <t>Последняя проверка</t>
+  </si>
+  <si>
+    <t>попа</t>
+  </si>
+  <si>
+    <t>PetrovskiyPublisher</t>
+  </si>
+  <si>
+    <t>Активна</t>
   </si>
 </sst>
 </file>
@@ -76,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -97,8 +128,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5CE57FBA-A542-4472-B332-03157B08944B}">
-  <header guid="{5CE57FBA-A542-4472-B332-03157B08944B}" dateTime="2024-05-03T16:01:51" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EF8802A9-54FF-4E47-A991-1B6BFF7054A7}">
+  <header guid="{EF8802A9-54FF-4E47-A991-1B6BFF7054A7}" dateTime="2024-06-18T00:37:43" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -410,12 +441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5BC0B1-B782-4B38-BF47-61AEBF974A53}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E003605F-E771-4667-8828-61A6F1913F7B}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -447,9 +487,55 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45461</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{469EEA6C-AF2F-4AAB-B229-F4EB5CA74199}">
+    <customSheetView guid="{9AD2534A-4371-478F-AE9D-9D6819E0B830}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
